--- a/data/TestLocation/input_data/conversion_technologies.xlsx
+++ b/data/TestLocation/input_data/conversion_technologies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="503" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0B4973-4F3F-4E87-A714-BCEDF5BD2D59}"/>
   <bookViews>
-    <workbookView xWindow="-2350" yWindow="-19460" windowWidth="23020" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="-16950" windowWidth="20530" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/data/TestLocation/input_data/conversion_technologies.xlsx
+++ b/data/TestLocation/input_data/conversion_technologies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0B4973-4F3F-4E87-A714-BCEDF5BD2D59}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2513F5-BEC7-4846-94A1-11AE749F2F51}"/>
   <bookViews>
-    <workbookView xWindow="7930" yWindow="-16950" windowWidth="20530" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
   <si>
     <t>technology_name</t>
   </si>
@@ -968,6 +968,36 @@
   </si>
   <si>
     <t>Remarks:</t>
+  </si>
+  <si>
+    <t>e for electricity</t>
+  </si>
+  <si>
+    <t>maxCapacityPotCTb1</t>
+  </si>
+  <si>
+    <t>maxCapacityPotCTb2</t>
+  </si>
+  <si>
+    <t>maxCapacityPotCTb3</t>
+  </si>
+  <si>
+    <t>maxCapacityPotCTb4</t>
+  </si>
+  <si>
+    <t>minCapacityPotCTb1</t>
+  </si>
+  <si>
+    <t>minCapacityPotCTb2</t>
+  </si>
+  <si>
+    <t>minCapacityPotCTb3</t>
+  </si>
+  <si>
+    <t>minCapacityPotCTb4</t>
+  </si>
+  <si>
+    <t>MW</t>
   </si>
 </sst>
 </file>
@@ -1561,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ24" sqref="BJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,9 +1611,11 @@
     <col min="36" max="42" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="43" max="49" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="50" max="56" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="60" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="64" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" s="30" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1752,8 +1784,32 @@
       <c r="BD1" s="30" t="s">
         <v>89</v>
       </c>
+      <c r="BE1" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF1" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="BG1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH1" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL1" s="30" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1929,8 +1985,32 @@
       <c r="BD2">
         <v>0.95</v>
       </c>
+      <c r="BE2">
+        <v>176979.12</v>
+      </c>
+      <c r="BF2">
+        <v>162660.01999999999</v>
+      </c>
+      <c r="BG2">
+        <v>112895.14</v>
+      </c>
+      <c r="BH2">
+        <v>145846.91</v>
+      </c>
+      <c r="BI2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2106,8 +2186,32 @@
       <c r="BD3" s="5">
         <v>1</v>
       </c>
+      <c r="BE3">
+        <v>176979.12</v>
+      </c>
+      <c r="BF3">
+        <v>162660.01999999999</v>
+      </c>
+      <c r="BG3">
+        <v>112895.14</v>
+      </c>
+      <c r="BH3">
+        <v>145846.91</v>
+      </c>
+      <c r="BI3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2276,8 +2380,32 @@
       <c r="BD4">
         <v>0.97460000000000002</v>
       </c>
+      <c r="BE4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BF4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BG4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2446,8 +2574,32 @@
       <c r="BD5">
         <v>0.97460000000000002</v>
       </c>
+      <c r="BE5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BH5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2616,8 +2768,32 @@
       <c r="BD6" s="9">
         <v>0.82099999999999995</v>
       </c>
+      <c r="BE6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BG6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BH6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2786,8 +2962,32 @@
       <c r="BD7">
         <v>0.44500000000000001</v>
       </c>
+      <c r="BE7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BF7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BG7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BH7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2956,8 +3156,32 @@
       <c r="BD8">
         <v>0.83</v>
       </c>
+      <c r="BE8" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF8" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG8" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH8" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3126,8 +3350,32 @@
       <c r="BD9" s="5">
         <v>1</v>
       </c>
+      <c r="BE9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH9" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3296,8 +3544,32 @@
       <c r="BD10">
         <v>0.4</v>
       </c>
+      <c r="BE10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH10" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3466,8 +3738,32 @@
       <c r="BD11">
         <v>0.87</v>
       </c>
+      <c r="BE11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3636,8 +3932,32 @@
       <c r="BD12">
         <v>0.87</v>
       </c>
+      <c r="BE12" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF12" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG12" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH12" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3806,8 +4126,32 @@
       <c r="BD13" s="5">
         <v>1</v>
       </c>
+      <c r="BE13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH13" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3976,8 +4320,32 @@
       <c r="BD14" s="5">
         <v>1</v>
       </c>
+      <c r="BE14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH14" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4146,8 +4514,32 @@
       <c r="BD15">
         <v>0.4</v>
       </c>
+      <c r="BE15" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF15" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH15" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4322,6 +4714,30 @@
       </c>
       <c r="BD16" s="5">
         <v>1</v>
+      </c>
+      <c r="BE16" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF16" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG16" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH16" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:76" x14ac:dyDescent="0.3">
@@ -4493,6 +4909,30 @@
       <c r="BD17">
         <v>0.6</v>
       </c>
+      <c r="BE17" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BF17" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BG17" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BH17" s="5">
+        <v>50000</v>
+      </c>
+      <c r="BI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4663,6 +5103,30 @@
       <c r="BD18" s="12">
         <v>0.54</v>
       </c>
+      <c r="BE18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BF18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BG18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BH18" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -4833,14 +5297,30 @@
       <c r="BD19" s="16">
         <v>1</v>
       </c>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
+      <c r="BE19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BF19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BG19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BH19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="BI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="5">
+        <v>0</v>
+      </c>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4"/>
       <c r="BO19" s="4"/>
@@ -4880,11 +5360,15 @@
       <c r="A21" t="s">
         <v>119</v>
       </c>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>129</v>
+      </c>
+      <c r="BI21" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="BJ21" s="4"/>
       <c r="BK21" s="4"/>
       <c r="BL21" s="4"/>
@@ -4913,10 +5397,6 @@
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
       <c r="AQ22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
       <c r="BI22" s="4"/>
       <c r="BJ22" s="4"/>
       <c r="BK22" s="4"/>
@@ -4961,11 +5441,6 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
       <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
       <c r="BI23" s="4"/>
       <c r="BJ23" s="4"/>
       <c r="BK23" s="4"/>
@@ -5026,11 +5501,6 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
       <c r="BC24" s="9"/>
-      <c r="BD24" s="9"/>
-      <c r="BE24" s="9"/>
-      <c r="BF24" s="9"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
       <c r="BI24" s="4"/>
       <c r="BJ24" s="4"/>
       <c r="BK24" s="4"/>
@@ -5083,11 +5553,6 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
       <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
-      <c r="BG25" s="4"/>
-      <c r="BH25" s="4"/>
       <c r="BI25" s="4"/>
       <c r="BJ25" s="4"/>
       <c r="BK25" s="4"/>
@@ -5155,11 +5620,6 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
       <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="4"/>
-      <c r="BH26" s="4"/>
       <c r="BI26" s="4"/>
       <c r="BJ26" s="4"/>
       <c r="BK26" s="4"/>
@@ -5224,11 +5684,6 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
       <c r="BC27" s="9"/>
-      <c r="BD27" s="9"/>
-      <c r="BE27" s="9"/>
-      <c r="BF27" s="9"/>
-      <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
       <c r="BI27" s="4"/>
       <c r="BJ27" s="4"/>
       <c r="BK27" s="4"/>
@@ -5293,11 +5748,6 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
       <c r="BC28" s="9"/>
-      <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-      <c r="BF28" s="9"/>
-      <c r="BG28" s="4"/>
-      <c r="BH28" s="4"/>
       <c r="BI28" s="4"/>
       <c r="BJ28" s="4"/>
       <c r="BK28" s="4"/>
@@ -5348,11 +5798,6 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
       <c r="BC29" s="9"/>
-      <c r="BD29" s="9"/>
-      <c r="BE29" s="9"/>
-      <c r="BF29" s="9"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
       <c r="BI29" s="4"/>
       <c r="BJ29" s="4"/>
       <c r="BK29" s="4"/>
@@ -5408,10 +5853,6 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
-      <c r="BE30" s="4"/>
-      <c r="BF30" s="4"/>
-      <c r="BG30" s="4"/>
-      <c r="BH30" s="4"/>
       <c r="BI30" s="4"/>
       <c r="BJ30" s="4"/>
       <c r="BK30" s="4"/>
@@ -5469,10 +5910,6 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
-      <c r="BE31" s="4"/>
-      <c r="BF31" s="4"/>
-      <c r="BG31" s="4"/>
-      <c r="BH31" s="4"/>
       <c r="BI31" s="4"/>
       <c r="BJ31" s="4"/>
       <c r="BK31" s="4"/>
@@ -5524,10 +5961,6 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="X32" s="9"/>
-      <c r="BE32" s="4"/>
-      <c r="BF32" s="4"/>
-      <c r="BG32" s="4"/>
-      <c r="BH32" s="4"/>
       <c r="BI32" s="4"/>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
@@ -5584,10 +6017,6 @@
       <c r="S33" s="15"/>
       <c r="T33" s="9"/>
       <c r="X33" s="9"/>
-      <c r="BE33" s="4"/>
-      <c r="BF33" s="4"/>
-      <c r="BG33" s="4"/>
-      <c r="BH33" s="4"/>
       <c r="BI33" s="4"/>
       <c r="BJ33" s="4"/>
       <c r="BK33" s="4"/>
@@ -5633,10 +6062,6 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-      <c r="BE34" s="4"/>
-      <c r="BF34" s="4"/>
-      <c r="BG34" s="4"/>
-      <c r="BH34" s="4"/>
       <c r="BI34" s="4"/>
       <c r="BJ34" s="4"/>
       <c r="BK34" s="4"/>
